--- a/ArticleManage/main_working_folder/output_folders/Data 144 Sustainable Food Waste Management/Data144_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 144 Sustainable Food Waste Management/Data144_all_graphs_excel.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 FW400-KOH500  0-1-0-45" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 FW400-KOH600  0-1-0-45" sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 FW400-KOH700  0-1-0-45" sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2 FW400-KOH800  0-1-0-45" sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2 FW500-KOH6001  0-1-0-3" sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2 FW500-KOH6002  0-1-0-3" sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 2 FW500-KOH6003  0-1-0-3" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2 FW400-KOH500  0&amp;1&amp;0&amp;45" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 FW400-KOH600  0&amp;1&amp;0&amp;45" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 FW400-KOH700  0&amp;1&amp;0&amp;45" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 FW400-KOH800  0&amp;1&amp;0&amp;45" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 FW500-KOH6001  0&amp;1&amp;0&amp;3" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2 FW500-KOH6002  0&amp;1&amp;0&amp;3" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2 FW500-KOH6003  0&amp;1&amp;0&amp;3" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -180,12 +180,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 FW400-KOH500  0-1-0-45'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 FW400-KOH500  0&amp;1&amp;0&amp;45'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 FW400-KOH500  0-1-0-45'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 FW400-KOH500  0&amp;1&amp;0&amp;45'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -494,12 +494,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 FW400-KOH600  0-1-0-45'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 FW400-KOH600  0&amp;1&amp;0&amp;45'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 FW400-KOH600  0-1-0-45'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 FW400-KOH600  0&amp;1&amp;0&amp;45'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -808,12 +808,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 FW400-KOH700  0-1-0-45'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 FW400-KOH700  0&amp;1&amp;0&amp;45'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 FW400-KOH700  0-1-0-45'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 FW400-KOH700  0&amp;1&amp;0&amp;45'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1122,12 +1122,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 FW400-KOH800  0-1-0-45'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 FW400-KOH800  0&amp;1&amp;0&amp;45'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 FW400-KOH800  0-1-0-45'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 FW400-KOH800  0&amp;1&amp;0&amp;45'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1436,12 +1436,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 FW500-KOH6001  0-1-0-3'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 FW500-KOH6001  0&amp;1&amp;0&amp;3'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 FW500-KOH6001  0-1-0-3'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 FW500-KOH6001  0&amp;1&amp;0&amp;3'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1750,12 +1750,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 FW500-KOH6002  0-1-0-3'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 FW500-KOH6002  0&amp;1&amp;0&amp;3'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 FW500-KOH6002  0-1-0-3'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 FW500-KOH6002  0&amp;1&amp;0&amp;3'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2064,12 +2064,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 FW500-KOH6003  0-1-0-3'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 FW500-KOH6003  0&amp;1&amp;0&amp;3'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 FW500-KOH6003  0-1-0-3'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 FW500-KOH6003  0&amp;1&amp;0&amp;3'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>

--- a/ArticleManage/main_working_folder/output_folders/Data 144 Sustainable Food Waste Management/Data144_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 144 Sustainable Food Waste Management/Data144_all_graphs_excel.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 FW400-KOH500  0&amp;1&amp;0&amp;45" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 FW400-KOH600  0&amp;1&amp;0&amp;45" sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 FW400-KOH700  0&amp;1&amp;0&amp;45" sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2 FW400-KOH800  0&amp;1&amp;0&amp;45" sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2 FW500-KOH6001  0&amp;1&amp;0&amp;3" sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2 FW500-KOH6002  0&amp;1&amp;0&amp;3" sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 2 FW500-KOH6003  0&amp;1&amp;0&amp;3" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2_1 FW400-KOH500  0&amp;1&amp;0&amp;" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2_1 FW400-KOH600  0&amp;1&amp;0&amp;" sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2_1 FW400-KOH700  0&amp;1&amp;0&amp;" sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2_1 FW400-KOH800  0&amp;1&amp;0&amp;" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2_2 FW500-KOH6001  0&amp;1&amp;0" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_2 FW500-KOH6002  0&amp;1&amp;0" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2_2 FW500-KOH6003  0&amp;1&amp;0" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -121,7 +121,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki FW400-KOH500 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki FW400-KOH500 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -180,12 +180,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 FW400-KOH500  0&amp;1&amp;0&amp;45'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 FW400-KOH500  0&amp;1&amp;0&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 FW400-KOH500  0&amp;1&amp;0&amp;45'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 FW400-KOH500  0&amp;1&amp;0&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -435,7 +435,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki FW400-KOH600 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki FW400-KOH600 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -494,12 +494,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 FW400-KOH600  0&amp;1&amp;0&amp;45'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 FW400-KOH600  0&amp;1&amp;0&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 FW400-KOH600  0&amp;1&amp;0&amp;45'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 FW400-KOH600  0&amp;1&amp;0&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -749,7 +749,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki FW400-KOH700 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki FW400-KOH700 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -808,12 +808,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 FW400-KOH700  0&amp;1&amp;0&amp;45'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 FW400-KOH700  0&amp;1&amp;0&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 FW400-KOH700  0&amp;1&amp;0&amp;45'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 FW400-KOH700  0&amp;1&amp;0&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1063,7 +1063,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki FW400-KOH800 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki FW400-KOH800 z wykresu 'Figure 2_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1122,12 +1122,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 FW400-KOH800  0&amp;1&amp;0&amp;45'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_1 FW400-KOH800  0&amp;1&amp;0&amp;'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 FW400-KOH800  0&amp;1&amp;0&amp;45'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_1 FW400-KOH800  0&amp;1&amp;0&amp;'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1377,7 +1377,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki FW500-KOH6001 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki FW500-KOH6001 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1436,12 +1436,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 FW500-KOH6001  0&amp;1&amp;0&amp;3'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 FW500-KOH6001  0&amp;1&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 FW500-KOH6001  0&amp;1&amp;0&amp;3'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 FW500-KOH6001  0&amp;1&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1691,7 +1691,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki FW500-KOH6002 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki FW500-KOH6002 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1750,12 +1750,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 FW500-KOH6002  0&amp;1&amp;0&amp;3'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 FW500-KOH6002  0&amp;1&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 FW500-KOH6002  0&amp;1&amp;0&amp;3'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 FW500-KOH6002  0&amp;1&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2005,7 +2005,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki FW500-KOH6003 z wykresu 'Figure 2' </a:t>
+              <a:t>Izoterma adsorpcji probki FW500-KOH6003 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2064,12 +2064,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 FW500-KOH6003  0&amp;1&amp;0&amp;3'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 FW500-KOH6003  0&amp;1&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 FW500-KOH6003  0&amp;1&amp;0&amp;3'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 FW500-KOH6003  0&amp;1&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>

--- a/ArticleManage/main_working_folder/output_folders/Data 144 Sustainable Food Waste Management/Data144_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 144 Sustainable Food Waste Management/Data144_all_graphs_excel.xlsx
@@ -9,9 +9,9 @@
     <sheet name="Figure 2_1 FW400-KOH600  0&amp;1&amp;0&amp;" sheetId="2" r:id="rId4"/>
     <sheet name="Figure 2_1 FW400-KOH700  0&amp;1&amp;0&amp;" sheetId="3" r:id="rId5"/>
     <sheet name="Figure 2_1 FW400-KOH800  0&amp;1&amp;0&amp;" sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2_2 FW500-KOH6001  0&amp;1&amp;0" sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2_2 FW500-KOH6002  0&amp;1&amp;0" sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 2_2 FW500-KOH6003  0&amp;1&amp;0" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2_2 FW400-KOH6001  0&amp;1&amp;0" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2_2 FW400-KOH6002  0&amp;1&amp;0" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2_2 FW400-KOH6003  0&amp;1&amp;0" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -38,13 +38,13 @@
     <t>FW400-KOH800</t>
   </si>
   <si>
-    <t>FW500-KOH6001</t>
+    <t>FW400-KOH6001</t>
   </si>
   <si>
-    <t>FW500-KOH6002</t>
+    <t>FW400-KOH6002</t>
   </si>
   <si>
-    <t>FW500-KOH6003</t>
+    <t>FW400-KOH6003</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1377,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki FW500-KOH6001 z wykresu 'Figure 2_2' </a:t>
+              <a:t>Izoterma adsorpcji probki FW400-KOH6001 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1436,12 +1436,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_2 FW500-KOH6001  0&amp;1&amp;0'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 FW400-KOH6001  0&amp;1&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_2 FW500-KOH6001  0&amp;1&amp;0'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 FW400-KOH6001  0&amp;1&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1691,7 +1691,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki FW500-KOH6002 z wykresu 'Figure 2_2' </a:t>
+              <a:t>Izoterma adsorpcji probki FW400-KOH6002 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1750,12 +1750,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_2 FW500-KOH6002  0&amp;1&amp;0'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 FW400-KOH6002  0&amp;1&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_2 FW500-KOH6002  0&amp;1&amp;0'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 FW400-KOH6002  0&amp;1&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2005,7 +2005,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki FW500-KOH6003 z wykresu 'Figure 2_2' </a:t>
+              <a:t>Izoterma adsorpcji probki FW400-KOH6003 z wykresu 'Figure 2_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2064,12 +2064,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2_2 FW500-KOH6003  0&amp;1&amp;0'!$A$3:$A$70</c:f>
+              <c:f>'Figure 2_2 FW400-KOH6003  0&amp;1&amp;0'!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2_2 FW500-KOH6003  0&amp;1&amp;0'!$B$3:$B$70</c:f>
+              <c:f>'Figure 2_2 FW400-KOH6003  0&amp;1&amp;0'!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
